--- a/data/trans_orig/P19C11_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19C11_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A79E212A-7795-4241-890C-6556FF278270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EB2D515-67F4-49FD-A7E1-55450D34071C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8D364165-F766-48B8-A683-2A323E1546B0}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D28E712F-A92B-48F7-999B-ACE0DF3A2625}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="139">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por implantes / solo 2023 en 2023 (Tasa respuesta: 96,88%)</t>
   </si>
@@ -77,22 +77,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,7%</t>
+    <t>2,05%</t>
   </si>
   <si>
     <t>0,84%</t>
   </si>
   <si>
-    <t>4,37%</t>
+    <t>4,6%</t>
   </si>
   <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,7 +101,7 @@
     <t>99,64%</t>
   </si>
   <si>
-    <t>98,3%</t>
+    <t>97,95%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -110,16 +110,16 @@
     <t>99,16%</t>
   </si>
   <si>
-    <t>95,63%</t>
+    <t>95,4%</t>
   </si>
   <si>
     <t>99,4%</t>
   </si>
   <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>99,95%</t>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>99,93%</t>
   </si>
   <si>
     <t>100%</t>
@@ -131,163 +131,169 @@
     <t>2,79%</t>
   </si>
   <si>
-    <t>1,32%</t>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
   </si>
   <si>
     <t>5,61%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
   </si>
   <si>
     <t>94,39%</t>
   </si>
   <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
   </si>
   <si>
     <t>94,79%</t>
   </si>
   <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -296,166 +302,154 @@
     <t>5,45%</t>
   </si>
   <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
     <t>3,88%</t>
   </si>
   <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
   </si>
   <si>
     <t>96,12%</t>
   </si>
   <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
     <t>95,97%</t>
   </si>
   <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
   </si>
   <si>
     <t>95,74%</t>
   </si>
   <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
+    <t>95,26%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -870,7 +864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C56008-63C8-4394-BA05-383315334616}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0674B61-450C-4977-80AC-CB31F9704C81}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1474,13 +1468,13 @@
         <v>41132</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>104</v>
@@ -1489,13 +1483,13 @@
         <v>74859</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1510,13 +1504,13 @@
         <v>668867</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>1046</v>
@@ -1525,13 +1519,13 @@
         <v>692675</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>1654</v>
@@ -1540,13 +1534,13 @@
         <v>1361541</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1602,7 +1596,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1614,13 +1608,13 @@
         <v>31857</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>71</v>
@@ -1629,13 +1623,13 @@
         <v>39779</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>107</v>
@@ -1644,13 +1638,13 @@
         <v>71636</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,13 +1659,13 @@
         <v>552913</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>910</v>
@@ -1680,28 +1674,28 @@
         <v>542564</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>1519</v>
       </c>
       <c r="N17" s="7">
-        <v>1095477</v>
+        <v>1095478</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1743,7 +1737,7 @@
         <v>1626</v>
       </c>
       <c r="N18" s="7">
-        <v>1167113</v>
+        <v>1167114</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>28</v>
@@ -1757,7 +1751,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1769,13 +1763,13 @@
         <v>50508</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>83</v>
@@ -1784,13 +1778,13 @@
         <v>45486</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>158</v>
@@ -1799,13 +1793,13 @@
         <v>95994</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1820,13 +1814,13 @@
         <v>629954</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>1574</v>
@@ -1835,13 +1829,13 @@
         <v>952644</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>2501</v>
@@ -1850,7 +1844,7 @@
         <v>1582598</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>120</v>
@@ -1957,10 +1951,10 @@
         <v>128</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1975,13 +1969,13 @@
         <v>3129448</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H23" s="7">
         <v>4964</v>
@@ -1990,13 +1984,13 @@
         <v>3566919</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M23" s="7">
         <v>8045</v>
@@ -2005,13 +1999,13 @@
         <v>6696367</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>138</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>139</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2067,7 +2061,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C11_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19C11_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1EB2D515-67F4-49FD-A7E1-55450D34071C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E713482F-AD4F-49C0-870C-68BF0D411EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D28E712F-A92B-48F7-999B-ACE0DF3A2625}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{51045F8B-E8EA-47F2-AA61-877D74036807}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -864,7 +864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0674B61-450C-4977-80AC-CB31F9704C81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A5626B-55F6-47DC-ABE5-3ADA981A4416}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P19C11_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19C11_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E713482F-AD4F-49C0-870C-68BF0D411EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{973FB315-50BC-41F8-9885-43FF8615D028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{51045F8B-E8EA-47F2-AA61-877D74036807}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E959B5F3-EBA2-4A5D-9524-36913D5FDC6C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="141">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por implantes / solo 2023 en 2023 (Tasa respuesta: 96,88%)</t>
   </si>
@@ -77,22 +77,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>2,05%</t>
+    <t>1,7%</t>
   </si>
   <si>
     <t>0,84%</t>
   </si>
   <si>
-    <t>4,6%</t>
+    <t>4,37%</t>
   </si>
   <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,7 +101,7 @@
     <t>99,64%</t>
   </si>
   <si>
-    <t>97,95%</t>
+    <t>98,3%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -110,16 +110,16 @@
     <t>99,16%</t>
   </si>
   <si>
-    <t>95,4%</t>
+    <t>95,63%</t>
   </si>
   <si>
     <t>99,4%</t>
   </si>
   <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>99,93%</t>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>99,95%</t>
   </si>
   <si>
     <t>100%</t>
@@ -131,226 +131,220 @@
     <t>2,79%</t>
   </si>
   <si>
-    <t>1,39%</t>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
   </si>
   <si>
     <t>5,42%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
   </si>
   <si>
     <t>94,58%</t>
   </si>
   <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
     <t>93,86%</t>
   </si>
   <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -359,97 +353,109 @@
     <t>7,42%</t>
   </si>
   <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
   </si>
   <si>
     <t>4,56%</t>
   </si>
   <si>
-    <t>3,02%</t>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
   </si>
   <si>
     <t>5,72%</t>
   </si>
   <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
   </si>
   <si>
     <t>92,58%</t>
   </si>
   <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
   </si>
   <si>
     <t>95,44%</t>
   </si>
   <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>97,0%</t>
+  </si>
+  <si>
     <t>94,28%</t>
   </si>
   <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
   </si>
   <si>
     <t>4,51%</t>
   </si>
   <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
   </si>
   <si>
     <t>4,03%</t>
   </si>
   <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
   </si>
   <si>
     <t>4,26%</t>
   </si>
   <si>
-    <t>4,74%</t>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
   </si>
   <si>
     <t>95,49%</t>
   </si>
   <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
   </si>
   <si>
     <t>95,97%</t>
   </si>
   <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
   </si>
   <si>
     <t>95,74%</t>
   </si>
   <si>
-    <t>95,26%</t>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -864,7 +870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A5626B-55F6-47DC-ABE5-3ADA981A4416}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD36C90-B61F-490A-841B-8F775A957B52}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1468,13 +1474,13 @@
         <v>41132</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>104</v>
@@ -1483,13 +1489,13 @@
         <v>74859</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1504,13 +1510,13 @@
         <v>668867</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>1046</v>
@@ -1519,13 +1525,13 @@
         <v>692675</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>1654</v>
@@ -1534,13 +1540,13 @@
         <v>1361541</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1596,7 +1602,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1608,13 +1614,13 @@
         <v>31857</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>71</v>
@@ -1623,13 +1629,13 @@
         <v>39779</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>107</v>
@@ -1638,13 +1644,13 @@
         <v>71636</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1659,13 +1665,13 @@
         <v>552913</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>910</v>
@@ -1674,28 +1680,28 @@
         <v>542564</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>1519</v>
       </c>
       <c r="N17" s="7">
-        <v>1095478</v>
+        <v>1095477</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1737,7 +1743,7 @@
         <v>1626</v>
       </c>
       <c r="N18" s="7">
-        <v>1167114</v>
+        <v>1167113</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>28</v>
@@ -1751,7 +1757,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1763,13 +1769,13 @@
         <v>50508</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>83</v>
@@ -1778,13 +1784,13 @@
         <v>45486</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>158</v>
@@ -1793,13 +1799,13 @@
         <v>95994</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1814,13 +1820,13 @@
         <v>629954</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>1574</v>
@@ -1829,13 +1835,13 @@
         <v>952644</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>2501</v>
@@ -1844,7 +1850,7 @@
         <v>1582598</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>120</v>
@@ -1951,10 +1957,10 @@
         <v>128</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>35</v>
+        <v>129</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1969,13 +1975,13 @@
         <v>3129448</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H23" s="7">
         <v>4964</v>
@@ -1984,13 +1990,13 @@
         <v>3566919</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M23" s="7">
         <v>8045</v>
@@ -1999,13 +2005,13 @@
         <v>6696367</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>43</v>
+        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2061,7 +2067,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P19C11_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P19C11_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{973FB315-50BC-41F8-9885-43FF8615D028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{28017706-FE16-4A49-AB9D-5CDB11CC4435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E959B5F3-EBA2-4A5D-9524-36913D5FDC6C}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{30097CD8-2F2B-4B46-920F-96C1C6E9D048}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="152">
   <si>
     <t>Población según si el motivo por su última visita al dentista fue por implantes / solo 2023 en 2023 (Tasa respuesta: 96,88%)</t>
   </si>
@@ -65,58 +65,58 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>0,36%</t>
+    <t>0,32%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
   </si>
   <si>
     <t>0,05%</t>
   </si>
   <si>
-    <t>2,43%</t>
+    <t>2,32%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
   </si>
   <si>
     <t>99,95%</t>
@@ -125,337 +125,370 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>2,64%</t>
   </si>
   <si>
     <t>1,26%</t>
   </si>
   <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
   </si>
   <si>
     <t>98,74%</t>
   </si>
   <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>3,48%</t>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>3,46%</t>
   </si>
   <si>
     <t>1,97%</t>
   </si>
   <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
   </si>
   <si>
     <t>98,03%</t>
   </si>
   <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>5,45%</t>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
   </si>
   <si>
     <t>3,88%</t>
   </si>
   <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
   </si>
   <si>
     <t>96,12%</t>
   </si>
   <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -870,8 +903,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD36C90-B61F-490A-841B-8F775A957B52}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{815E8B96-ED96-4E3D-8B65-2202AE46746E}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -991,7 +1024,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>1295</v>
+        <v>1227</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1006,7 +1039,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>2893</v>
+        <v>2661</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1021,7 +1054,7 @@
         <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>4188</v>
+        <v>3889</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -1042,7 +1075,7 @@
         <v>156</v>
       </c>
       <c r="D5" s="7">
-        <v>356463</v>
+        <v>382220</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>20</v>
@@ -1057,7 +1090,7 @@
         <v>193</v>
       </c>
       <c r="I5" s="7">
-        <v>341603</v>
+        <v>300880</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>23</v>
@@ -1072,7 +1105,7 @@
         <v>349</v>
       </c>
       <c r="N5" s="7">
-        <v>698066</v>
+        <v>683099</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>25</v>
@@ -1093,7 +1126,7 @@
         <v>157</v>
       </c>
       <c r="D6" s="7">
-        <v>357758</v>
+        <v>383447</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>28</v>
@@ -1108,7 +1141,7 @@
         <v>195</v>
       </c>
       <c r="I6" s="7">
-        <v>344496</v>
+        <v>303541</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>28</v>
@@ -1123,7 +1156,7 @@
         <v>352</v>
       </c>
       <c r="N6" s="7">
-        <v>702254</v>
+        <v>686988</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>28</v>
@@ -1146,7 +1179,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="7">
-        <v>11356</v>
+        <v>10614</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>30</v>
@@ -1161,7 +1194,7 @@
         <v>7</v>
       </c>
       <c r="I7" s="7">
-        <v>9057</v>
+        <v>8175</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>33</v>
@@ -1176,7 +1209,7 @@
         <v>17</v>
       </c>
       <c r="N7" s="7">
-        <v>20413</v>
+        <v>18789</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>36</v>
@@ -1197,7 +1230,7 @@
         <v>271</v>
       </c>
       <c r="D8" s="7">
-        <v>395844</v>
+        <v>391737</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>39</v>
@@ -1212,7 +1245,7 @@
         <v>435</v>
       </c>
       <c r="I8" s="7">
-        <v>476818</v>
+        <v>491517</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>42</v>
@@ -1227,7 +1260,7 @@
         <v>706</v>
       </c>
       <c r="N8" s="7">
-        <v>872662</v>
+        <v>883253</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>45</v>
@@ -1248,7 +1281,7 @@
         <v>281</v>
       </c>
       <c r="D9" s="7">
-        <v>407200</v>
+        <v>402351</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>28</v>
@@ -1263,7 +1296,7 @@
         <v>442</v>
       </c>
       <c r="I9" s="7">
-        <v>485875</v>
+        <v>499692</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>28</v>
@@ -1278,7 +1311,7 @@
         <v>723</v>
       </c>
       <c r="N9" s="7">
-        <v>893075</v>
+        <v>902042</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>28</v>
@@ -1301,7 +1334,7 @@
         <v>17</v>
       </c>
       <c r="D10" s="7">
-        <v>18947</v>
+        <v>18113</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>49</v>
@@ -1316,31 +1349,31 @@
         <v>19</v>
       </c>
       <c r="I10" s="7">
-        <v>11582</v>
+        <v>10908</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M10" s="7">
         <v>36</v>
       </c>
       <c r="N10" s="7">
-        <v>30529</v>
+        <v>29021</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1352,46 +1385,46 @@
         <v>510</v>
       </c>
       <c r="D11" s="7">
-        <v>525408</v>
+        <v>505929</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H11" s="7">
         <v>806</v>
       </c>
       <c r="I11" s="7">
-        <v>560614</v>
+        <v>520973</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="M11" s="7">
         <v>1316</v>
       </c>
       <c r="N11" s="7">
-        <v>1086023</v>
+        <v>1026902</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1403,7 +1436,7 @@
         <v>527</v>
       </c>
       <c r="D12" s="7">
-        <v>544355</v>
+        <v>524042</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>28</v>
@@ -1418,7 +1451,7 @@
         <v>825</v>
       </c>
       <c r="I12" s="7">
-        <v>572196</v>
+        <v>531881</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>28</v>
@@ -1433,7 +1466,7 @@
         <v>1352</v>
       </c>
       <c r="N12" s="7">
-        <v>1116552</v>
+        <v>1055923</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>28</v>
@@ -1447,7 +1480,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1456,46 +1489,46 @@
         <v>33</v>
       </c>
       <c r="D13" s="7">
-        <v>33727</v>
+        <v>32181</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>71</v>
       </c>
       <c r="I13" s="7">
-        <v>41132</v>
+        <v>38348</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M13" s="7">
         <v>104</v>
       </c>
       <c r="N13" s="7">
-        <v>74859</v>
+        <v>70529</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1507,25 +1540,25 @@
         <v>608</v>
       </c>
       <c r="D14" s="7">
-        <v>668867</v>
+        <v>830747</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H14" s="7">
         <v>1046</v>
       </c>
       <c r="I14" s="7">
-        <v>692675</v>
+        <v>662244</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>79</v>
@@ -1537,7 +1570,7 @@
         <v>1654</v>
       </c>
       <c r="N14" s="7">
-        <v>1361541</v>
+        <v>1492990</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>81</v>
@@ -1558,7 +1591,7 @@
         <v>641</v>
       </c>
       <c r="D15" s="7">
-        <v>702594</v>
+        <v>862928</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>28</v>
@@ -1573,7 +1606,7 @@
         <v>1117</v>
       </c>
       <c r="I15" s="7">
-        <v>733807</v>
+        <v>700592</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>28</v>
@@ -1588,7 +1621,7 @@
         <v>1758</v>
       </c>
       <c r="N15" s="7">
-        <v>1436400</v>
+        <v>1563519</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>28</v>
@@ -1611,7 +1644,7 @@
         <v>36</v>
       </c>
       <c r="D16" s="7">
-        <v>31857</v>
+        <v>30277</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>85</v>
@@ -1626,7 +1659,7 @@
         <v>71</v>
       </c>
       <c r="I16" s="7">
-        <v>39779</v>
+        <v>36767</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>88</v>
@@ -1641,7 +1674,7 @@
         <v>107</v>
       </c>
       <c r="N16" s="7">
-        <v>71636</v>
+        <v>67045</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>91</v>
@@ -1662,7 +1695,7 @@
         <v>609</v>
       </c>
       <c r="D17" s="7">
-        <v>552913</v>
+        <v>516302</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>94</v>
@@ -1677,7 +1710,7 @@
         <v>910</v>
       </c>
       <c r="I17" s="7">
-        <v>542564</v>
+        <v>497759</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>97</v>
@@ -1692,7 +1725,7 @@
         <v>1519</v>
       </c>
       <c r="N17" s="7">
-        <v>1095477</v>
+        <v>1014060</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>100</v>
@@ -1713,7 +1746,7 @@
         <v>645</v>
       </c>
       <c r="D18" s="7">
-        <v>584770</v>
+        <v>546579</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>28</v>
@@ -1728,7 +1761,7 @@
         <v>981</v>
       </c>
       <c r="I18" s="7">
-        <v>582343</v>
+        <v>534526</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>28</v>
@@ -1743,7 +1776,7 @@
         <v>1626</v>
       </c>
       <c r="N18" s="7">
-        <v>1167113</v>
+        <v>1081105</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>28</v>
@@ -1763,49 +1796,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="D19" s="7">
-        <v>50508</v>
+        <v>31053</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>45</v>
+      </c>
+      <c r="I19" s="7">
+        <v>22391</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="H19" s="7">
-        <v>83</v>
-      </c>
-      <c r="I19" s="7">
-        <v>45486</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>93</v>
+      </c>
+      <c r="N19" s="7">
+        <v>53444</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="M19" s="7">
-        <v>158</v>
-      </c>
-      <c r="N19" s="7">
-        <v>95994</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1814,49 +1847,49 @@
         <v>19</v>
       </c>
       <c r="C20" s="7">
-        <v>927</v>
+        <v>508</v>
       </c>
       <c r="D20" s="7">
-        <v>629954</v>
+        <v>328300</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20" s="7">
+        <v>762</v>
+      </c>
+      <c r="I20" s="7">
+        <v>577518</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>1270</v>
+      </c>
+      <c r="N20" s="7">
+        <v>905818</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="H20" s="7">
-        <v>1574</v>
-      </c>
-      <c r="I20" s="7">
-        <v>952644</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="M20" s="7">
-        <v>2501</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1582598</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1865,10 +1898,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1002</v>
+        <v>556</v>
       </c>
       <c r="D21" s="7">
-        <v>680462</v>
+        <v>359353</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>28</v>
@@ -1880,10 +1913,10 @@
         <v>28</v>
       </c>
       <c r="H21" s="7">
-        <v>1657</v>
+        <v>807</v>
       </c>
       <c r="I21" s="7">
-        <v>998130</v>
+        <v>599909</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>28</v>
@@ -1895,10 +1928,10 @@
         <v>28</v>
       </c>
       <c r="M21" s="7">
-        <v>2659</v>
+        <v>1363</v>
       </c>
       <c r="N21" s="7">
-        <v>1678592</v>
+        <v>959262</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>28</v>
@@ -1912,55 +1945,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>172</v>
+        <v>27</v>
       </c>
       <c r="D22" s="7">
-        <v>147690</v>
+        <v>17209</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H22" s="7">
+        <v>38</v>
+      </c>
+      <c r="I22" s="7">
+        <v>19662</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="H22" s="7">
-        <v>253</v>
-      </c>
-      <c r="I22" s="7">
-        <v>149929</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>65</v>
+      </c>
+      <c r="N22" s="7">
+        <v>36871</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="M22" s="7">
-        <v>425</v>
-      </c>
-      <c r="N22" s="7">
-        <v>297619</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1969,49 +2002,49 @@
         <v>19</v>
       </c>
       <c r="C23" s="7">
-        <v>3081</v>
+        <v>419</v>
       </c>
       <c r="D23" s="7">
-        <v>3129448</v>
+        <v>258312</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H23" s="7">
+        <v>812</v>
+      </c>
+      <c r="I23" s="7">
+        <v>389025</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="H23" s="7">
-        <v>4964</v>
-      </c>
-      <c r="I23" s="7">
-        <v>3566919</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>1231</v>
+      </c>
+      <c r="N23" s="7">
+        <v>647337</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="M23" s="7">
-        <v>8045</v>
-      </c>
-      <c r="N23" s="7">
-        <v>6696367</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2020,63 +2053,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>446</v>
+      </c>
+      <c r="D24" s="7">
+        <v>275521</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="7">
+        <v>850</v>
+      </c>
+      <c r="I24" s="7">
+        <v>408687</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1296</v>
+      </c>
+      <c r="N24" s="7">
+        <v>684208</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>172</v>
+      </c>
+      <c r="D25" s="7">
+        <v>140674</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H25" s="7">
+        <v>253</v>
+      </c>
+      <c r="I25" s="7">
+        <v>138912</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="M25" s="7">
+        <v>425</v>
+      </c>
+      <c r="N25" s="7">
+        <v>279587</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3081</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3213547</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4964</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3439915</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M26" s="7">
+        <v>8045</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6653461</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3253</v>
       </c>
-      <c r="D24" s="7">
-        <v>3277138</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3354221</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="7">
         <v>5217</v>
       </c>
-      <c r="I24" s="7">
-        <v>3716848</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3578827</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="7">
         <v>8470</v>
       </c>
-      <c r="N24" s="7">
-        <v>6993986</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>140</v>
+      <c r="N27" s="7">
+        <v>6933048</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
